--- a/Results/Summary.xlsx
+++ b/Results/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C837AA-FDF7-7A43-88FE-A8B59471CC52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1CBF08-7A7C-914B-8731-B72667DC5793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25300" yWindow="6920" windowWidth="28040" windowHeight="17440" xr2:uid="{7BDD1FA6-8066-5F43-A91F-28E344465799}"/>
+    <workbookView xWindow="34620" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7BDD1FA6-8066-5F43-A91F-28E344465799}"/>
   </bookViews>
   <sheets>
     <sheet name="Subtype" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="48">
   <si>
     <t>Architecture</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>MSI&amp;POLE</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I6</t>
   </si>
 </sst>
 </file>
@@ -320,20 +326,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -657,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96EAF4F-20CA-F640-83EF-D8CF9D82823C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -687,10 +693,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -710,8 +716,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
@@ -729,8 +735,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -748,10 +754,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -771,8 +777,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
@@ -790,8 +796,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
@@ -809,10 +815,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -832,8 +838,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -851,8 +857,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -870,10 +876,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -893,8 +899,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -912,8 +918,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
@@ -931,10 +937,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -954,8 +960,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
@@ -973,8 +979,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
@@ -992,10 +998,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1015,8 +1021,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1040,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1053,10 +1059,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1076,8 +1082,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1095,8 +1101,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1114,10 +1120,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1137,8 +1143,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
@@ -1156,8 +1162,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1175,10 +1181,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1198,8 +1204,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1223,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1236,10 +1242,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1259,8 +1265,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1278,8 +1284,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
@@ -1298,6 +1304,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A20:A22"/>
@@ -1306,18 +1324,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1325,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8332AEA4-6ABF-1649-AB6A-6366AE6DE52A}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1354,7 +1360,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1374,7 +1380,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1394,7 +1400,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1414,67 +1420,67 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.89090999999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.78230999999999995</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.93883000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.92727000000000004</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.61904999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.93496000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.96428999999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.97396000000000005</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.98512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.92857000000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.99478999999999995</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.99631999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>0.74712999999999996</v>
+        <v>0.96428999999999998</v>
       </c>
       <c r="E7" s="4">
-        <v>0.76193</v>
+        <v>0.97396000000000005</v>
       </c>
       <c r="F7" s="4">
-        <v>0.66605000000000003</v>
+        <v>0.98512</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1484,38 +1490,38 @@
         <v>23</v>
       </c>
       <c r="D8" s="4">
-        <v>0.95228000000000002</v>
+        <v>0.92857000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>0.95191999999999999</v>
+        <v>0.99478999999999995</v>
       </c>
       <c r="F8" s="4">
-        <v>0.97863</v>
+        <v>0.99631999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
+      <c r="A9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>0.67815999999999999</v>
+        <v>0.74712999999999996</v>
       </c>
       <c r="E9" s="4">
-        <v>0.67871000000000004</v>
+        <v>0.76193</v>
       </c>
       <c r="F9" s="4">
-        <v>0.41011999999999998</v>
+        <v>0.66605000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>25</v>
+      <c r="A10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1524,158 +1530,158 @@
         <v>23</v>
       </c>
       <c r="D10" s="4">
-        <v>0.86667000000000005</v>
+        <v>0.95228000000000002</v>
       </c>
       <c r="E10" s="4">
-        <v>0.95369999999999999</v>
+        <v>0.95191999999999999</v>
       </c>
       <c r="F10" s="4">
-        <v>0.97162999999999999</v>
+        <v>0.97863</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.87097000000000002</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.97806999999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.87097000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.95174999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.97689000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.70115000000000005</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.72774000000000005</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.47815000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.80459999999999998</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.61680999999999997</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.25025999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>0.92308000000000001</v>
+        <v>0.67815999999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>0.98124999999999996</v>
+        <v>0.67871000000000004</v>
       </c>
       <c r="F13" s="4">
-        <v>0.92679999999999996</v>
+        <v>0.41011999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
+      <c r="A14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.97162999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.78161000000000003</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.58067000000000002</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.25462000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4">
-        <v>0.64368000000000003</v>
+        <v>0.70115000000000005</v>
       </c>
       <c r="E15" s="4">
-        <v>0.64709000000000005</v>
+        <v>0.72774000000000005</v>
       </c>
       <c r="F15" s="4">
-        <v>0.61160000000000003</v>
+        <v>0.47815000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
+      <c r="A16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4">
-        <v>0.78161000000000003</v>
+        <v>0.84848000000000001</v>
       </c>
       <c r="E16" s="4">
-        <v>0.58067000000000002</v>
+        <v>0.89615</v>
       </c>
       <c r="F16" s="4">
-        <v>0.25462000000000001</v>
+        <v>0.94191000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>27</v>
+      <c r="A17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="4">
-        <v>0.84211000000000003</v>
+        <v>0.78788000000000002</v>
       </c>
       <c r="E17" s="4">
-        <v>0.375</v>
+        <v>0.89231000000000005</v>
       </c>
       <c r="F17" s="4">
-        <v>0.86116000000000004</v>
+        <v>0.88953000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
@@ -1684,132 +1690,412 @@
         <v>8</v>
       </c>
       <c r="D18" s="4">
-        <v>0.57471000000000005</v>
+        <v>0.80459999999999998</v>
       </c>
       <c r="E18" s="4">
-        <v>0.51034999999999997</v>
+        <v>0.61680999999999997</v>
       </c>
       <c r="F18" s="4">
-        <v>0.43146000000000001</v>
+        <v>0.25025999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
+      <c r="A19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.92308000000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.98124999999999996</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.92679999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4">
-        <v>0.55171999999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.56698999999999999</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.45774999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" s="4">
-        <v>0.75</v>
+        <v>0.78161000000000003</v>
       </c>
       <c r="E20" s="4">
-        <v>0.85938000000000003</v>
+        <v>0.58067000000000002</v>
       </c>
       <c r="F20" s="4">
-        <v>0.72499999999999998</v>
+        <v>0.25462000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>30</v>
+      <c r="A21" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4">
-        <v>0.69230999999999998</v>
+        <v>0.75861999999999996</v>
       </c>
       <c r="E21" s="4">
-        <v>0.67974000000000001</v>
+        <v>0.89215999999999995</v>
       </c>
       <c r="F21" s="4">
-        <v>0.66073999999999999</v>
+        <v>0.85467000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>31</v>
+      <c r="A22" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="4">
-        <v>0.84</v>
+        <v>0.82759000000000005</v>
       </c>
       <c r="E22" s="4">
-        <v>0.90385000000000004</v>
+        <v>0.91176000000000001</v>
       </c>
       <c r="F22" s="4">
-        <v>0.92967999999999995</v>
+        <v>0.88271999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
+      <c r="A23" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4">
+        <v>0.64368000000000003</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.64709000000000005</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.61160000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.78161000000000003</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.58067000000000002</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.25462000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.84211000000000003</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.86116000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.75556000000000001</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.73529</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.83335000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.80213999999999996</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.91778000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.57471000000000005</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.51034999999999997</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.43146000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.55171999999999999</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.56698999999999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.45774999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.74358999999999997</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.89493999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.85938000000000003</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.69230999999999998</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.67974000000000001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.66073999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.90385000000000004</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.92967999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.81401000000000001</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.78022000000000002</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.80510999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="4">
         <v>0.83333000000000002</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E35" s="4">
         <v>0.92969000000000002</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F35" s="4">
         <v>0.90078999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.73077000000000003</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.84306999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.71414999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="4">
         <v>0.86363999999999996</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E38" s="4">
         <v>0.80357000000000001</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F38" s="4">
         <v>0.69357000000000002</v>
       </c>
     </row>
@@ -1849,10 +2135,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1869,8 +2155,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1885,8 +2171,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1901,10 +2187,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1921,8 +2207,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1937,8 +2223,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1953,10 +2239,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1973,8 +2259,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1989,8 +2275,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -2005,10 +2291,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2025,8 +2311,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2041,8 +2327,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2057,10 +2343,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2077,8 +2363,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
@@ -2093,8 +2379,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2395,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2124,12 +2410,12 @@
       <c r="E17" s="4">
         <v>0.18182000000000001</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
@@ -2140,11 +2426,11 @@
         <v>0.80861000000000005</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
@@ -2152,10 +2438,10 @@
         <v>0.61802000000000001</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2170,12 +2456,12 @@
       <c r="E20" s="4">
         <v>9.0910000000000005E-2</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2186,11 +2472,11 @@
         <v>0.84689000000000003</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
@@ -2198,10 +2484,16 @@
         <v>0.57459000000000005</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="D21:E21"/>
@@ -2214,12 +2506,6 @@
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2256,10 +2542,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2276,8 +2562,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2292,8 +2578,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2308,7 +2594,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2326,7 +2612,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
@@ -2342,8 +2628,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2402,7 +2688,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2425,7 +2711,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
